--- a/Отчёт/EachGraphComparison - First.xlsx
+++ b/Отчёт/EachGraphComparison - First.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Construction and analysis of algorithms\SortAlgorithms\Отчёт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{095CDD35-F521-4DA1-96C6-6B58F43B9CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B275AA8C-E32F-47BC-897D-1C105DC4B268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23002,8 +23002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U28" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AX81" sqref="AX81"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AY82" sqref="AY82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Отчёт/EachGraphComparison - First.xlsx
+++ b/Отчёт/EachGraphComparison - First.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Construction and analysis of algorithms\SortAlgorithms\Отчёт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B275AA8C-E32F-47BC-897D-1C105DC4B268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255846D2-32C7-4B41-A48D-E9F99F7648DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="18">
   <si>
     <t>Mode</t>
   </si>
@@ -74,81 +74,6 @@
   </si>
   <si>
     <t>From 0 to 4000</t>
-  </si>
-  <si>
-    <t>From 0 to 4001</t>
-  </si>
-  <si>
-    <t>From 0 to 4002</t>
-  </si>
-  <si>
-    <t>From 0 to 4003</t>
-  </si>
-  <si>
-    <t>From 0 to 4004</t>
-  </si>
-  <si>
-    <t>From 0 to 4005</t>
-  </si>
-  <si>
-    <t>From 0 to 4006</t>
-  </si>
-  <si>
-    <t>From 0 to 4007</t>
-  </si>
-  <si>
-    <t>From 0 to 4008</t>
-  </si>
-  <si>
-    <t>From 0 to 4009</t>
-  </si>
-  <si>
-    <t>From 0 to 4010</t>
-  </si>
-  <si>
-    <t>From 0 to 4011</t>
-  </si>
-  <si>
-    <t>From 0 to 4012</t>
-  </si>
-  <si>
-    <t>From 0 to 4013</t>
-  </si>
-  <si>
-    <t>From 0 to 4014</t>
-  </si>
-  <si>
-    <t>From 0 to 4015</t>
-  </si>
-  <si>
-    <t>From 0 to 4016</t>
-  </si>
-  <si>
-    <t>From 0 to 4017</t>
-  </si>
-  <si>
-    <t>From 0 to 4018</t>
-  </si>
-  <si>
-    <t>From 0 to 4019</t>
-  </si>
-  <si>
-    <t>From 0 to 4020</t>
-  </si>
-  <si>
-    <t>From 0 to 4021</t>
-  </si>
-  <si>
-    <t>From 0 to 4022</t>
-  </si>
-  <si>
-    <t>From 0 to 4023</t>
-  </si>
-  <si>
-    <t>From 0 to 4024</t>
-  </si>
-  <si>
-    <t>From 0 to 4025</t>
   </si>
 </sst>
 </file>
@@ -23002,8 +22927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AY82" sqref="AY82"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24242,7 +24167,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29">
         <v>60</v>
@@ -24286,7 +24211,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30">
         <v>70</v>
@@ -24330,7 +24255,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>80</v>
@@ -24374,7 +24299,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B32">
         <v>90</v>
@@ -24418,7 +24343,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>100</v>
@@ -24462,7 +24387,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>110</v>
@@ -24506,7 +24431,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B35">
         <v>120</v>
@@ -24550,7 +24475,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -24594,7 +24519,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B37">
         <v>140</v>
@@ -24638,7 +24563,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>150</v>
@@ -24682,7 +24607,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>160</v>
@@ -24726,7 +24651,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B40">
         <v>170</v>
@@ -24770,7 +24695,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B41">
         <v>180</v>
@@ -24814,7 +24739,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B42">
         <v>190</v>
@@ -24858,7 +24783,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>200</v>
@@ -24902,7 +24827,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>210</v>
@@ -24946,7 +24871,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B45">
         <v>220</v>
@@ -24990,7 +24915,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B46">
         <v>230</v>
@@ -25034,7 +24959,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B47">
         <v>240</v>
@@ -25078,7 +25003,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B48">
         <v>250</v>
@@ -25122,7 +25047,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B49">
         <v>260</v>
@@ -25166,7 +25091,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B50">
         <v>270</v>
@@ -25210,7 +25135,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B51">
         <v>280</v>
@@ -25254,7 +25179,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B52">
         <v>290</v>
@@ -25298,7 +25223,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B53">
         <v>300</v>
